--- a/02_code/output/stats_summary.xlsx
+++ b/02_code/output/stats_summary.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpow2134\Documents\GitHub\heartworm_genome\02_code\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71A1E438-C2E0-4756-A9AD-AB399584E27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379B5C93-E573-4F37-B100-844CCD633649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FastQC" sheetId="1" r:id="rId1"/>
     <sheet name="Mapping" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="188">
   <si>
     <t>Sample</t>
   </si>
@@ -543,13 +556,55 @@
   </si>
   <si>
     <t>Extracted D. immitis reads</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>F?</t>
+  </si>
+  <si>
+    <t>M?</t>
+  </si>
+  <si>
+    <t>Plot (* = looks weird)</t>
+  </si>
+  <si>
+    <t>Unknown*</t>
+  </si>
+  <si>
+    <t>F?*</t>
+  </si>
+  <si>
+    <t>1G</t>
+  </si>
+  <si>
+    <t>&gt;10G</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>% reads kept</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,8 +739,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,6 +950,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0099"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1050,9 +1123,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1068,9 +1144,22 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1116,8 +1205,34 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC0099"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1425,36 +1540,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,8 +1630,11 @@
       <c r="O2" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1541,8 +1677,12 @@
       <c r="O3">
         <v>38712921</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <f>(O3/G3)*100</f>
+        <v>98.812007353958208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1585,8 +1725,12 @@
       <c r="O4">
         <v>38712921</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <f t="shared" ref="P4:P66" si="0">(O4/G4)*100</f>
+        <v>98.812007353958208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1629,8 +1773,12 @@
       <c r="O5">
         <v>38186428</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>97.937088859459138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1673,8 +1821,12 @@
       <c r="O6">
         <v>38186428</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>97.937088859459138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1717,8 +1869,12 @@
       <c r="O7">
         <v>38440606</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>98.580486454205811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1761,8 +1917,12 @@
       <c r="O8">
         <v>38440606</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>98.580486454205811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1805,8 +1965,12 @@
       <c r="O9">
         <v>35240877</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>98.311357544236714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1849,8 +2013,12 @@
       <c r="O10">
         <v>35240877</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>98.311357544236714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1893,8 +2061,12 @@
       <c r="O11">
         <v>37274808</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>98.825218607679517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1937,8 +2109,12 @@
       <c r="O12">
         <v>37274808</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>98.825218607679517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1981,8 +2157,12 @@
       <c r="O13">
         <v>35853590</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>99.409083954806647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2025,8 +2205,12 @@
       <c r="O14">
         <v>35853590</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>99.409083954806647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2069,8 +2253,12 @@
       <c r="O15">
         <v>64253900</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>99.027919261804854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2113,8 +2301,12 @@
       <c r="O16">
         <v>64253900</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>99.027919261804854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2157,8 +2349,12 @@
       <c r="O17">
         <v>50703719</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>99.255402220143296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2201,8 +2397,12 @@
       <c r="O18">
         <v>50703719</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>99.255402220143296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2245,8 +2445,12 @@
       <c r="O19">
         <v>45388525</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>99.169394915064416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2289,8 +2493,12 @@
       <c r="O20">
         <v>45388525</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>99.169394915064416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2333,8 +2541,12 @@
       <c r="O21">
         <v>3718813</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>98.832369321570297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2377,8 +2589,12 @@
       <c r="O22">
         <v>3718813</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>98.832369321570297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2421,8 +2637,12 @@
       <c r="O23">
         <v>40436938</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>99.202536676316171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2465,8 +2685,12 @@
       <c r="O24">
         <v>40436938</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>99.202536676316171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2509,8 +2733,12 @@
       <c r="O25">
         <v>4251786</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>99.111194510846957</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2553,8 +2781,12 @@
       <c r="O26">
         <v>4251786</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>99.111194510846957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2829,12 @@
       <c r="O27">
         <v>42259022</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>99.195991544155845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2641,8 +2877,12 @@
       <c r="O28">
         <v>42259022</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>99.195991544155845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2685,8 +2925,12 @@
       <c r="O29">
         <v>36177606</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>99.256217744910273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2729,8 +2973,12 @@
       <c r="O30">
         <v>36177606</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>99.256217744910273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2773,8 +3021,12 @@
       <c r="O31">
         <v>37731888</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>99.317185740797797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2817,8 +3069,12 @@
       <c r="O32">
         <v>37731888</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>99.317185740797797</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2861,8 +3117,12 @@
       <c r="O33">
         <v>54821382</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>99.323144869065246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2905,8 +3165,12 @@
       <c r="O34">
         <v>54821382</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>99.323144869065246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2949,8 +3213,12 @@
       <c r="O35">
         <v>40214817</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>99.383198595150375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2993,8 +3261,12 @@
       <c r="O36">
         <v>40214817</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>99.383198595150375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3037,8 +3309,12 @@
       <c r="O37">
         <v>44323852</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>99.18661734351511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3081,8 +3357,12 @@
       <c r="O38">
         <v>44323852</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>99.18661734351511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3125,8 +3405,12 @@
       <c r="O39">
         <v>55047368</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>99.091210052609782</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3169,8 +3453,12 @@
       <c r="O40">
         <v>55047368</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>99.091210052609782</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3213,8 +3501,12 @@
       <c r="O41">
         <v>46613880</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>99.017339485987932</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3257,8 +3549,12 @@
       <c r="O42">
         <v>46613880</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>99.017339485987932</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3301,8 +3597,12 @@
       <c r="O43">
         <v>34618663</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>99.199689494699612</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3345,8 +3645,12 @@
       <c r="O44">
         <v>34618663</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>99.199689494699612</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3389,8 +3693,12 @@
       <c r="O45">
         <v>40472648</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>99.204277853712853</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3433,8 +3741,12 @@
       <c r="O46">
         <v>40472648</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>99.204277853712853</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3789,12 @@
       <c r="O47">
         <v>3467662</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>99.354391373547898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3521,8 +3837,12 @@
       <c r="O48">
         <v>3467662</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>99.354391373547898</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3565,8 +3885,12 @@
       <c r="O49">
         <v>33132612</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>99.277030745137779</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3609,8 +3933,12 @@
       <c r="O50">
         <v>33132612</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>99.277030745137779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3653,8 +3981,12 @@
       <c r="O51">
         <v>41949056</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>99.257327893325709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3697,8 +4029,12 @@
       <c r="O52">
         <v>41949056</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <f>(O52/G52)*100</f>
+        <v>99.257327893325709</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3741,8 +4077,12 @@
       <c r="O53">
         <v>42720727</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>99.111705575314403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3785,8 +4125,12 @@
       <c r="O54">
         <v>42720727</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>99.111705575314403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3829,8 +4173,12 @@
       <c r="O55">
         <v>43980590</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>99.257441076840763</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3873,8 +4221,12 @@
       <c r="O56">
         <v>43980590</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>99.257441076840763</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3917,8 +4269,12 @@
       <c r="O57">
         <v>4239187</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>99.502345912544612</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3961,8 +4317,12 @@
       <c r="O58">
         <v>4239187</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>99.502345912544612</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -4005,8 +4365,12 @@
       <c r="O59">
         <v>4181691</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59">
+        <f>(O59/G59)*100</f>
+        <v>99.387209522863358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -4049,8 +4413,12 @@
       <c r="O60">
         <v>4181691</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>99.387209522863358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -4093,8 +4461,12 @@
       <c r="O61">
         <v>32634433</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>99.405736183771396</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4137,8 +4509,12 @@
       <c r="O62">
         <v>32634433</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>99.405736183771396</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4181,8 +4557,12 @@
       <c r="O63">
         <v>35705645</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>99.235148590868278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4225,8 +4605,12 @@
       <c r="O64">
         <v>35705645</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>99.235148590868278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4269,8 +4653,12 @@
       <c r="O65">
         <v>34897076</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>99.289694843545163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4312,23 +4700,27 @@
       </c>
       <c r="O66">
         <v>34897076</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>99.289694843545163</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4341,60 +4733,75 @@
     <col min="7" max="7" width="17.77734375" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="7" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -4425,8 +4832,11 @@
       <c r="J3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -4457,8 +4867,11 @@
       <c r="J4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -4489,8 +4902,11 @@
       <c r="J5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -4521,8 +4937,11 @@
       <c r="J6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -4553,8 +4972,12 @@
       <c r="J7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -4585,8 +5008,14 @@
       <c r="J8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>147</v>
       </c>
@@ -4617,8 +5046,14 @@
       <c r="J9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -4649,8 +5084,14 @@
       <c r="J10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -4681,8 +5122,14 @@
       <c r="J11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -4713,8 +5160,17 @@
       <c r="J12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="M12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -4745,8 +5201,14 @@
       <c r="J13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>152</v>
       </c>
@@ -4777,8 +5239,14 @@
       <c r="J14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>153</v>
       </c>
@@ -4809,8 +5277,14 @@
       <c r="J15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -4841,8 +5315,14 @@
       <c r="J16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -4873,8 +5353,14 @@
       <c r="J17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -4905,8 +5391,14 @@
       <c r="J18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -4937,8 +5429,14 @@
       <c r="J19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -4969,8 +5467,14 @@
       <c r="J20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>159</v>
       </c>
@@ -5001,8 +5505,14 @@
       <c r="J21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>160</v>
       </c>
@@ -5033,8 +5543,14 @@
       <c r="J22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -5065,8 +5581,14 @@
       <c r="J23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -5097,8 +5619,17 @@
       <c r="J24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>163</v>
       </c>
@@ -5129,8 +5660,14 @@
       <c r="J25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>164</v>
       </c>
@@ -5161,8 +5698,14 @@
       <c r="J26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>165</v>
       </c>
@@ -5193,8 +5736,17 @@
       <c r="J27">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="M27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>166</v>
       </c>
@@ -5225,8 +5777,17 @@
       <c r="J28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="M28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>167</v>
       </c>
@@ -5257,8 +5818,11 @@
       <c r="J29">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L29" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -5289,8 +5853,11 @@
       <c r="J30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L30" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>169</v>
       </c>
@@ -5321,8 +5888,11 @@
       <c r="J31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L31" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>170</v>
       </c>
@@ -5353,8 +5923,11 @@
       <c r="J32">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L32" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>171</v>
       </c>
@@ -5385,14 +5958,27 @@
       <c r="J33">
         <v>100</v>
       </c>
+      <c r="L33" s="14" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
+  <conditionalFormatting sqref="L10:L33">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sequence">
+      <formula>NOT(ISERROR(SEARCH("Sequence",L10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No action">
+      <formula>NOT(ISERROR(SEARCH("No action",L10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/02_code/output/stats_summary.xlsx
+++ b/02_code/output/stats_summary.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpow2134\Documents\GitHub\heartworm_genome\02_code\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379B5C93-E573-4F37-B100-844CCD633649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B835C3-31F5-40AE-BC1C-7F7D75EEB1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13935" yWindow="390" windowWidth="13650" windowHeight="15420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FastQC" sheetId="1" r:id="rId1"/>
     <sheet name="Mapping" sheetId="3" r:id="rId2"/>
+    <sheet name="Variants" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="224">
   <si>
     <t>Sample</t>
   </si>
@@ -561,9 +562,6 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>Manual</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -579,9 +577,6 @@
     <t>M?</t>
   </si>
   <si>
-    <t>Plot (* = looks weird)</t>
-  </si>
-  <si>
     <t>Unknown*</t>
   </si>
   <si>
@@ -594,17 +589,131 @@
     <t>&gt;10G</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>% reads kept</t>
+  </si>
+  <si>
+    <t>Sample ID</t>
+  </si>
+  <si>
+    <t>Mapped reads</t>
+  </si>
+  <si>
+    <t>Mapped reads (%)</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Nuclear (mean)</t>
+  </si>
+  <si>
+    <t>Nuclear (stddev)</t>
+  </si>
+  <si>
+    <t>Wb</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Phenotype</t>
+  </si>
+  <si>
+    <t>Genetic (* = looks weird)</t>
+  </si>
+  <si>
+    <t>Amount sequenced</t>
+  </si>
+  <si>
+    <t>mito</t>
+  </si>
+  <si>
+    <t>number of samples:</t>
+  </si>
+  <si>
+    <t>number of records:</t>
+  </si>
+  <si>
+    <t>number of no-ALTs:</t>
+  </si>
+  <si>
+    <t>number of SNPs:</t>
+  </si>
+  <si>
+    <t>number of MNPs:</t>
+  </si>
+  <si>
+    <t>number of indels:</t>
+  </si>
+  <si>
+    <t>number of others:</t>
+  </si>
+  <si>
+    <t>number of multiallelic sites:</t>
+  </si>
+  <si>
+    <t>number of multiallelic SNP sites:</t>
+  </si>
+  <si>
+    <t>all_samples_vcf_stats.txt</t>
+  </si>
+  <si>
+    <t>| Filtered_VCF | Variants_PASS | Variants_FILTERED |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| -- | -- | -- | </t>
+  </si>
+  <si>
+    <t>| dirofilaria_australia.cohort.2023-05-16.mitoINDELs.filtered.vcf | 13 | 14 |</t>
+  </si>
+  <si>
+    <t>| dirofilaria_australia.cohort.2023-05-16.mitoSNPs.filtered.vcf | 21 | 13 |</t>
+  </si>
+  <si>
+    <t>| dirofilaria_australia.cohort.2023-05-16.nuclearINDELs.filtered.vcf | 418392 | 41707 |</t>
+  </si>
+  <si>
+    <t>| dirofilaria_australia.cohort.2023-05-16.nuclearSNPs.filtered.vcf | 247855 | 30989 |</t>
+  </si>
+  <si>
+    <t>| dirofilaria_australia.cohort.2023-05-16.WbINDELs.filtered.vcf | 4071 | 379 |</t>
+  </si>
+  <si>
+    <t>| dirofilaria_australia.cohort.2023-05-16.WbSNPs.filtered.vcf | 1351 | 152 |</t>
+  </si>
+  <si>
+    <t>filter.stats</t>
+  </si>
+  <si>
+    <t>After gatk VariantFiltration</t>
+  </si>
+  <si>
+    <t>Applied set of standard filters</t>
+  </si>
+  <si>
+    <t>snps_qc4</t>
+  </si>
+  <si>
+    <t>Nuclear SNPs</t>
+  </si>
+  <si>
+    <t>After filtering, kept 177288 out of a possible 278838 Sites</t>
+  </si>
+  <si>
+    <t>Filtered by missingness</t>
+  </si>
+  <si>
+    <t>snps_qc7</t>
+  </si>
+  <si>
+    <t>After filtering, kept 173103 out of a possible 177288 Sites</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,8 +854,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -934,31 +1058,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC5D0FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC0099"/>
+        <fgColor rgb="FFB9E8FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFDC97"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC8A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC9FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,43 +1259,47 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1230,6 +1370,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC9FF"/>
+      <color rgb="FFFFC8A3"/>
+      <color rgb="FFFFD5B9"/>
+      <color rgb="FFFFD7AF"/>
+      <color rgb="FFFFDC97"/>
+      <color rgb="FFB9E8FF"/>
+      <color rgb="FFC5D0FF"/>
       <color rgb="FFCC0099"/>
     </mruColors>
   </colors>
@@ -1547,26 +1694,26 @@
       <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="7.88671875" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
@@ -1587,7 +1734,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1631,10 +1778,10 @@
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1682,7 +1829,7 @@
         <v>98.812007353958208</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1730,7 +1877,7 @@
         <v>98.812007353958208</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1778,7 +1925,7 @@
         <v>97.937088859459138</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1826,7 +1973,7 @@
         <v>97.937088859459138</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1874,7 +2021,7 @@
         <v>98.580486454205811</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1922,7 +2069,7 @@
         <v>98.580486454205811</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1970,7 +2117,7 @@
         <v>98.311357544236714</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2018,7 +2165,7 @@
         <v>98.311357544236714</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2066,7 +2213,7 @@
         <v>98.825218607679517</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2114,7 +2261,7 @@
         <v>98.825218607679517</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2162,7 +2309,7 @@
         <v>99.409083954806647</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2210,7 +2357,7 @@
         <v>99.409083954806647</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2258,7 +2405,7 @@
         <v>99.027919261804854</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2306,7 +2453,7 @@
         <v>99.027919261804854</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2354,7 +2501,7 @@
         <v>99.255402220143296</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2402,7 +2549,7 @@
         <v>99.255402220143296</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2450,7 +2597,7 @@
         <v>99.169394915064416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2498,7 +2645,7 @@
         <v>99.169394915064416</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2546,7 +2693,7 @@
         <v>98.832369321570297</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2594,7 +2741,7 @@
         <v>98.832369321570297</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2642,7 +2789,7 @@
         <v>99.202536676316171</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2690,7 +2837,7 @@
         <v>99.202536676316171</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2738,7 +2885,7 @@
         <v>99.111194510846957</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2786,7 +2933,7 @@
         <v>99.111194510846957</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2834,7 +2981,7 @@
         <v>99.195991544155845</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2882,7 +3029,7 @@
         <v>99.195991544155845</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2930,7 +3077,7 @@
         <v>99.256217744910273</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2978,7 +3125,7 @@
         <v>99.256217744910273</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3026,7 +3173,7 @@
         <v>99.317185740797797</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3074,7 +3221,7 @@
         <v>99.317185740797797</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3122,7 +3269,7 @@
         <v>99.323144869065246</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3170,7 +3317,7 @@
         <v>99.323144869065246</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3218,7 +3365,7 @@
         <v>99.383198595150375</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3266,7 +3413,7 @@
         <v>99.383198595150375</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3314,7 +3461,7 @@
         <v>99.18661734351511</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3362,7 +3509,7 @@
         <v>99.18661734351511</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3410,7 +3557,7 @@
         <v>99.091210052609782</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3458,7 +3605,7 @@
         <v>99.091210052609782</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3506,7 +3653,7 @@
         <v>99.017339485987932</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3554,7 +3701,7 @@
         <v>99.017339485987932</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3602,7 +3749,7 @@
         <v>99.199689494699612</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3650,7 +3797,7 @@
         <v>99.199689494699612</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3698,7 +3845,7 @@
         <v>99.204277853712853</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3746,7 +3893,7 @@
         <v>99.204277853712853</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3794,7 +3941,7 @@
         <v>99.354391373547898</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3842,7 +3989,7 @@
         <v>99.354391373547898</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3890,7 +4037,7 @@
         <v>99.277030745137779</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3938,7 +4085,7 @@
         <v>99.277030745137779</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3986,7 +4133,7 @@
         <v>99.257327893325709</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -4034,7 +4181,7 @@
         <v>99.257327893325709</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -4082,7 +4229,7 @@
         <v>99.111705575314403</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -4130,7 +4277,7 @@
         <v>99.111705575314403</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -4178,7 +4325,7 @@
         <v>99.257441076840763</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -4226,7 +4373,7 @@
         <v>99.257441076840763</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -4274,7 +4421,7 @@
         <v>99.502345912544612</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -4322,7 +4469,7 @@
         <v>99.502345912544612</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -4370,7 +4517,7 @@
         <v>99.387209522863358</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -4418,7 +4565,7 @@
         <v>99.387209522863358</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -4466,7 +4613,7 @@
         <v>99.405736183771396</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4514,7 +4661,7 @@
         <v>99.405736183771396</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4562,7 +4709,7 @@
         <v>99.235148590868278</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4610,7 +4757,7 @@
         <v>99.235148590868278</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4658,7 +4805,7 @@
         <v>99.289694843545163</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4717,91 +4864,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="K2" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="L2" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="M2" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="N2" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O2" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -4814,29 +4982,41 @@
       <c r="D3">
         <v>99.94</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="17">
+        <v>4.1644409792725998</v>
+      </c>
+      <c r="F3" s="17">
+        <v>23.225924872876998</v>
+      </c>
+      <c r="G3" s="17">
+        <v>7179.19</v>
+      </c>
+      <c r="H3" s="17">
+        <v>293.495</v>
+      </c>
+      <c r="I3">
         <v>74048559</v>
       </c>
-      <c r="F3">
+      <c r="J3">
         <v>74048559</v>
       </c>
-      <c r="G3">
+      <c r="K3">
         <v>100</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <v>73906779</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>73906779</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>100</v>
       </c>
-      <c r="L3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -4849,29 +5029,41 @@
       <c r="D4">
         <v>81.81</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="17">
+        <v>2.5493189979111999</v>
+      </c>
+      <c r="F4" s="17">
+        <v>14.331509157674001</v>
+      </c>
+      <c r="G4" s="17">
+        <v>7285.9</v>
+      </c>
+      <c r="H4" s="17">
+        <v>187.006</v>
+      </c>
+      <c r="I4">
         <v>47608124</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <v>47608124</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <v>100</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>45683133</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>45683133</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>100</v>
       </c>
-      <c r="L4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -4884,29 +5076,41 @@
       <c r="D5">
         <v>99.8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="17">
+        <v>3.8304604583008999</v>
+      </c>
+      <c r="F5" s="17">
+        <v>21.539837653669</v>
+      </c>
+      <c r="G5" s="17">
+        <v>10881.5</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1024.33</v>
+      </c>
+      <c r="I5">
         <v>73532222</v>
       </c>
-      <c r="F5">
+      <c r="J5">
         <v>73532222</v>
       </c>
-      <c r="G5">
+      <c r="K5">
         <v>100</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <v>73484655</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <v>73484655</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <v>100</v>
       </c>
-      <c r="L5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -4919,29 +5123,41 @@
       <c r="D6">
         <v>99.46</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="17">
+        <v>3.396580109661</v>
+      </c>
+      <c r="F6" s="17">
+        <v>20.224942635321</v>
+      </c>
+      <c r="G6" s="17">
+        <v>6861.82</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1132.6099999999999</v>
+      </c>
+      <c r="I6">
         <v>66428507</v>
       </c>
-      <c r="F6">
+      <c r="J6">
         <v>66428507</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <v>100</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <v>66361805</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <v>66361805</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <v>100</v>
       </c>
-      <c r="L6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -4954,30 +5170,42 @@
       <c r="D7">
         <v>99.93</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="17">
+        <v>4.0653880856217004</v>
+      </c>
+      <c r="F7" s="17">
+        <v>22.589047267026</v>
+      </c>
+      <c r="G7" s="17">
+        <v>3977.62</v>
+      </c>
+      <c r="H7" s="17">
+        <v>118.908</v>
+      </c>
+      <c r="I7">
         <v>71079593</v>
       </c>
-      <c r="F7">
+      <c r="J7">
         <v>71079593</v>
       </c>
-      <c r="G7">
+      <c r="K7">
         <v>100</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <v>71065608</v>
       </c>
-      <c r="I7">
+      <c r="M7">
         <v>71065608</v>
       </c>
-      <c r="J7">
+      <c r="N7">
         <v>100</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -4990,32 +5218,44 @@
       <c r="D8">
         <v>99.58</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="17">
+        <v>2.3682813177150002</v>
+      </c>
+      <c r="F8" s="17">
+        <v>12.771973549615</v>
+      </c>
+      <c r="G8" s="17">
+        <v>26557.3</v>
+      </c>
+      <c r="H8" s="17">
+        <v>4311.6400000000003</v>
+      </c>
+      <c r="I8">
         <v>69784508</v>
       </c>
-      <c r="F8">
+      <c r="J8">
         <v>69784508</v>
       </c>
-      <c r="G8">
+      <c r="K8">
         <v>100</v>
       </c>
-      <c r="H8">
+      <c r="L8">
         <v>69673259</v>
       </c>
-      <c r="I8">
+      <c r="M8">
         <v>69673259</v>
       </c>
-      <c r="J8">
+      <c r="N8">
         <v>100</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>147</v>
       </c>
@@ -5028,32 +5268,44 @@
       <c r="D9">
         <v>99.69</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="17">
+        <v>6.8039859467120003</v>
+      </c>
+      <c r="F9" s="17">
+        <v>37.329029238631001</v>
+      </c>
+      <c r="G9" s="17">
+        <v>40220</v>
+      </c>
+      <c r="H9" s="17">
+        <v>489.64400000000001</v>
+      </c>
+      <c r="I9">
         <v>123874119</v>
       </c>
-      <c r="F9">
+      <c r="J9">
         <v>123874119</v>
       </c>
-      <c r="G9">
+      <c r="K9">
         <v>100</v>
       </c>
-      <c r="H9">
+      <c r="L9">
         <v>123842120</v>
       </c>
-      <c r="I9">
+      <c r="M9">
         <v>123842120</v>
       </c>
-      <c r="J9">
+      <c r="N9">
         <v>100</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="O9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="L9" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -5066,32 +5318,44 @@
       <c r="D10">
         <v>99.79</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="17">
+        <v>5.0740538929095997</v>
+      </c>
+      <c r="F10" s="17">
+        <v>27.669505854697</v>
+      </c>
+      <c r="G10" s="17">
+        <v>45775.7</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1096.44</v>
+      </c>
+      <c r="I10">
         <v>98235004</v>
       </c>
-      <c r="F10">
+      <c r="J10">
         <v>98235004</v>
       </c>
-      <c r="G10">
+      <c r="K10">
         <v>100</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <v>98030527</v>
       </c>
-      <c r="I10">
+      <c r="M10">
         <v>98030527</v>
       </c>
-      <c r="J10">
+      <c r="N10">
         <v>100</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -5104,32 +5368,44 @@
       <c r="D11">
         <v>99.54</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="17">
+        <v>5.0822622083560001</v>
+      </c>
+      <c r="F11" s="17">
+        <v>27.302192865314002</v>
+      </c>
+      <c r="G11" s="17">
+        <v>815.77</v>
+      </c>
+      <c r="H11" s="17">
+        <v>13.1812</v>
+      </c>
+      <c r="I11">
         <v>87542928</v>
       </c>
-      <c r="F11">
+      <c r="J11">
         <v>87542928</v>
       </c>
-      <c r="G11">
+      <c r="K11">
         <v>100</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>87526167</v>
       </c>
-      <c r="I11">
+      <c r="M11">
         <v>87526167</v>
       </c>
-      <c r="J11">
+      <c r="N11">
         <v>100</v>
       </c>
-      <c r="K11" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O11" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -5142,35 +5418,47 @@
       <c r="D12">
         <v>98.94</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="17">
+        <v>0.10522265309033001</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.37382362918263001</v>
+      </c>
+      <c r="G12" s="17">
+        <v>5647.23</v>
+      </c>
+      <c r="H12" s="17">
+        <v>796.94399999999996</v>
+      </c>
+      <c r="I12">
         <v>7264683</v>
       </c>
-      <c r="F12">
+      <c r="J12">
         <v>7264683</v>
       </c>
-      <c r="G12">
+      <c r="K12">
         <v>100</v>
       </c>
-      <c r="H12">
+      <c r="L12">
         <v>6626258</v>
       </c>
-      <c r="I12">
+      <c r="M12">
         <v>6626258</v>
       </c>
-      <c r="J12">
+      <c r="N12">
         <v>100</v>
       </c>
-      <c r="K12" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="L12" s="14" t="s">
+      <c r="O12" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q12" t="s">
         <v>182</v>
       </c>
-      <c r="M12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -5183,32 +5471,44 @@
       <c r="D13">
         <v>99.62</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="17">
+        <v>4.4353764894537004</v>
+      </c>
+      <c r="F13" s="17">
+        <v>24.334480211252998</v>
+      </c>
+      <c r="G13" s="17">
+        <v>4591.63</v>
+      </c>
+      <c r="H13" s="17">
+        <v>113.17700000000001</v>
+      </c>
+      <c r="I13">
         <v>77438443</v>
       </c>
-      <c r="F13">
+      <c r="J13">
         <v>77438443</v>
       </c>
-      <c r="G13">
+      <c r="K13">
         <v>100</v>
       </c>
-      <c r="H13">
+      <c r="L13">
         <v>76535528</v>
       </c>
-      <c r="I13">
+      <c r="M13">
         <v>76535528</v>
       </c>
-      <c r="J13">
+      <c r="N13">
         <v>100</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="O13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>152</v>
       </c>
@@ -5221,32 +5521,44 @@
       <c r="D14">
         <v>99.73</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="17">
+        <v>4.2524875609574</v>
+      </c>
+      <c r="F14" s="17">
+        <v>21.848649870637001</v>
+      </c>
+      <c r="G14" s="17">
+        <v>7432.64</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1336.19</v>
+      </c>
+      <c r="I14">
         <v>81664762</v>
       </c>
-      <c r="F14">
+      <c r="J14">
         <v>81664762</v>
       </c>
-      <c r="G14">
+      <c r="K14">
         <v>100</v>
       </c>
-      <c r="H14">
+      <c r="L14">
         <v>78181972</v>
       </c>
-      <c r="I14">
+      <c r="M14">
         <v>78181972</v>
       </c>
-      <c r="J14">
+      <c r="N14">
         <v>100</v>
       </c>
-      <c r="K14" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O14" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>153</v>
       </c>
@@ -5259,32 +5571,44 @@
       <c r="D15">
         <v>99.82</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="17">
+        <v>2.5391919756591999</v>
+      </c>
+      <c r="F15" s="17">
+        <v>13.578341588974</v>
+      </c>
+      <c r="G15" s="17">
+        <v>20165</v>
+      </c>
+      <c r="H15" s="17">
+        <v>4076.26</v>
+      </c>
+      <c r="I15">
         <v>70547477</v>
       </c>
-      <c r="F15">
+      <c r="J15">
         <v>70547477</v>
       </c>
-      <c r="G15">
+      <c r="K15">
         <v>100</v>
       </c>
-      <c r="H15">
+      <c r="L15">
         <v>69333773</v>
       </c>
-      <c r="I15">
+      <c r="M15">
         <v>69333773</v>
       </c>
-      <c r="J15">
+      <c r="N15">
         <v>100</v>
       </c>
-      <c r="K15" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O15" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -5297,32 +5621,44 @@
       <c r="D16">
         <v>99.72</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="17">
+        <v>4.1855674091220996</v>
+      </c>
+      <c r="F16" s="17">
+        <v>22.717068094567001</v>
+      </c>
+      <c r="G16" s="17">
+        <v>3368.51</v>
+      </c>
+      <c r="H16" s="17">
+        <v>88.693299999999994</v>
+      </c>
+      <c r="I16">
         <v>72720969</v>
       </c>
-      <c r="F16">
+      <c r="J16">
         <v>72720969</v>
       </c>
-      <c r="G16">
+      <c r="K16">
         <v>100</v>
       </c>
-      <c r="H16">
+      <c r="L16">
         <v>72708336</v>
       </c>
-      <c r="I16">
+      <c r="M16">
         <v>72708336</v>
       </c>
-      <c r="J16">
+      <c r="N16">
         <v>100</v>
       </c>
-      <c r="K16" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -5335,32 +5671,44 @@
       <c r="D17">
         <v>99.65</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="17">
+        <v>6.0041862212161003</v>
+      </c>
+      <c r="F17" s="17">
+        <v>32.583154069808998</v>
+      </c>
+      <c r="G17" s="17">
+        <v>6881.59</v>
+      </c>
+      <c r="H17" s="17">
+        <v>342.83800000000002</v>
+      </c>
+      <c r="I17">
         <v>105778046</v>
       </c>
-      <c r="F17">
+      <c r="J17">
         <v>105778046</v>
       </c>
-      <c r="G17">
+      <c r="K17">
         <v>100</v>
       </c>
-      <c r="H17">
+      <c r="L17">
         <v>105760696</v>
       </c>
-      <c r="I17">
+      <c r="M17">
         <v>105760696</v>
       </c>
-      <c r="J17">
+      <c r="N17">
         <v>100</v>
       </c>
-      <c r="K17" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -5373,32 +5721,44 @@
       <c r="D18">
         <v>99.83</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="17">
+        <v>4.4843529728237002</v>
+      </c>
+      <c r="F18" s="17">
+        <v>24.274338535279998</v>
+      </c>
+      <c r="G18" s="17">
+        <v>3519.01</v>
+      </c>
+      <c r="H18" s="17">
+        <v>69.250799999999998</v>
+      </c>
+      <c r="I18">
         <v>77751337</v>
       </c>
-      <c r="F18">
+      <c r="J18">
         <v>77751337</v>
       </c>
-      <c r="G18">
+      <c r="K18">
         <v>100</v>
       </c>
-      <c r="H18">
+      <c r="L18">
         <v>77737925</v>
       </c>
-      <c r="I18">
+      <c r="M18">
         <v>77737925</v>
       </c>
-      <c r="J18">
+      <c r="N18">
         <v>100</v>
       </c>
-      <c r="K18" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O18" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -5411,32 +5771,44 @@
       <c r="D19">
         <v>99.77</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="17">
+        <v>4.8876912689385996</v>
+      </c>
+      <c r="F19" s="17">
+        <v>26.491374079867001</v>
+      </c>
+      <c r="G19" s="17">
+        <v>4185.59</v>
+      </c>
+      <c r="H19" s="17">
+        <v>166.166</v>
+      </c>
+      <c r="I19">
         <v>85380794</v>
       </c>
-      <c r="F19">
+      <c r="J19">
         <v>85380794</v>
       </c>
-      <c r="G19">
+      <c r="K19">
         <v>100</v>
       </c>
-      <c r="H19">
+      <c r="L19">
         <v>85367333</v>
       </c>
-      <c r="I19">
+      <c r="M19">
         <v>85367333</v>
       </c>
-      <c r="J19">
+      <c r="N19">
         <v>100</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -5449,32 +5821,44 @@
       <c r="D20">
         <v>99.78</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="17">
+        <v>5.3893984121383998</v>
+      </c>
+      <c r="F20" s="17">
+        <v>29.530829619809001</v>
+      </c>
+      <c r="G20" s="17">
+        <v>53894</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1422.06</v>
+      </c>
+      <c r="I20">
         <v>106578023</v>
       </c>
-      <c r="F20">
+      <c r="J20">
         <v>106578023</v>
       </c>
-      <c r="G20">
+      <c r="K20">
         <v>100</v>
       </c>
-      <c r="H20">
+      <c r="L20">
         <v>106555782</v>
       </c>
-      <c r="I20">
+      <c r="M20">
         <v>106555782</v>
       </c>
-      <c r="J20">
+      <c r="N20">
         <v>100</v>
       </c>
-      <c r="K20" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>159</v>
       </c>
@@ -5487,32 +5871,44 @@
       <c r="D21">
         <v>99.75</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="17">
+        <v>4.5834688907045003</v>
+      </c>
+      <c r="F21" s="17">
+        <v>25.198302123937001</v>
+      </c>
+      <c r="G21" s="17">
+        <v>40712.400000000001</v>
+      </c>
+      <c r="H21" s="17">
+        <v>1219.1600000000001</v>
+      </c>
+      <c r="I21">
         <v>90166325</v>
       </c>
-      <c r="F21">
+      <c r="J21">
         <v>90166325</v>
       </c>
-      <c r="G21">
+      <c r="K21">
         <v>100</v>
       </c>
-      <c r="H21">
+      <c r="L21">
         <v>90151337</v>
       </c>
-      <c r="I21">
+      <c r="M21">
         <v>90151337</v>
       </c>
-      <c r="J21">
+      <c r="N21">
         <v>100</v>
       </c>
-      <c r="K21" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>160</v>
       </c>
@@ -5525,32 +5921,44 @@
       <c r="D22">
         <v>99.76</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="17">
+        <v>3.8354683149509001</v>
+      </c>
+      <c r="F22" s="17">
+        <v>20.834776742228001</v>
+      </c>
+      <c r="G22" s="17">
+        <v>3270.63</v>
+      </c>
+      <c r="H22" s="17">
+        <v>84.436000000000007</v>
+      </c>
+      <c r="I22">
         <v>66702066</v>
       </c>
-      <c r="F22">
+      <c r="J22">
         <v>66702066</v>
       </c>
-      <c r="G22">
+      <c r="K22">
         <v>100</v>
       </c>
-      <c r="H22">
+      <c r="L22">
         <v>66690461</v>
       </c>
-      <c r="I22">
+      <c r="M22">
         <v>66690461</v>
       </c>
-      <c r="J22">
+      <c r="N22">
         <v>100</v>
       </c>
-      <c r="K22" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O22" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -5563,32 +5971,44 @@
       <c r="D23">
         <v>99.7</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="17">
+        <v>4.4887228684715001</v>
+      </c>
+      <c r="F23" s="17">
+        <v>24.383703574365999</v>
+      </c>
+      <c r="G23" s="17">
+        <v>3815.03</v>
+      </c>
+      <c r="H23" s="17">
+        <v>95.767899999999997</v>
+      </c>
+      <c r="I23">
         <v>78022247</v>
       </c>
-      <c r="F23">
+      <c r="J23">
         <v>78022247</v>
       </c>
-      <c r="G23">
+      <c r="K23">
         <v>100</v>
       </c>
-      <c r="H23">
+      <c r="L23">
         <v>78008675</v>
       </c>
-      <c r="I23">
+      <c r="M23">
         <v>78008675</v>
       </c>
-      <c r="J23">
+      <c r="N23">
         <v>100</v>
       </c>
-      <c r="K23" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O23" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -5601,35 +6021,47 @@
       <c r="D24">
         <v>99.52</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="17">
+        <v>0.11502834445051</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0.62890337914257</v>
+      </c>
+      <c r="G24" s="17">
+        <v>3998.29</v>
+      </c>
+      <c r="H24" s="17">
+        <v>723.33600000000001</v>
+      </c>
+      <c r="I24">
         <v>6814012</v>
       </c>
-      <c r="F24">
+      <c r="J24">
         <v>6814012</v>
       </c>
-      <c r="G24">
+      <c r="K24">
         <v>100</v>
       </c>
-      <c r="H24">
+      <c r="L24">
         <v>6811976</v>
       </c>
-      <c r="I24">
+      <c r="M24">
         <v>6811976</v>
       </c>
-      <c r="J24">
+      <c r="N24">
         <v>100</v>
       </c>
-      <c r="K24" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="L24" s="14" t="s">
+      <c r="O24" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q24" t="s">
         <v>182</v>
       </c>
-      <c r="M24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>163</v>
       </c>
@@ -5642,32 +6074,44 @@
       <c r="D25">
         <v>99.4</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="17">
+        <v>2.8307405246826001</v>
+      </c>
+      <c r="F25" s="17">
+        <v>15.632233890710999</v>
+      </c>
+      <c r="G25" s="17">
+        <v>38651.300000000003</v>
+      </c>
+      <c r="H25" s="17">
+        <v>1871.1</v>
+      </c>
+      <c r="I25">
         <v>63881536</v>
       </c>
-      <c r="F25">
+      <c r="J25">
         <v>63881536</v>
       </c>
-      <c r="G25">
+      <c r="K25">
         <v>100</v>
       </c>
-      <c r="H25">
+      <c r="L25">
         <v>63782339</v>
       </c>
-      <c r="I25">
+      <c r="M25">
         <v>63782339</v>
       </c>
-      <c r="J25">
+      <c r="N25">
         <v>100</v>
       </c>
-      <c r="K25" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>164</v>
       </c>
@@ -5680,32 +6124,44 @@
       <c r="D26">
         <v>99.91</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="17">
+        <v>4.0608269100448</v>
+      </c>
+      <c r="F26" s="17">
+        <v>22.438584681177002</v>
+      </c>
+      <c r="G26" s="17">
+        <v>45926.2</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1169.3</v>
+      </c>
+      <c r="I26">
         <v>81250231</v>
       </c>
-      <c r="F26">
+      <c r="J26">
         <v>81250231</v>
       </c>
-      <c r="G26">
+      <c r="K26">
         <v>100</v>
       </c>
-      <c r="H26">
+      <c r="L26">
         <v>81156638</v>
       </c>
-      <c r="I26">
+      <c r="M26">
         <v>81156638</v>
       </c>
-      <c r="J26">
+      <c r="N26">
         <v>100</v>
       </c>
-      <c r="K26" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>165</v>
       </c>
@@ -5718,35 +6174,47 @@
       <c r="D27">
         <v>99.84</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="17">
+        <v>4.6627569791042998</v>
+      </c>
+      <c r="F27" s="17">
+        <v>26.287664880186</v>
+      </c>
+      <c r="G27" s="17">
+        <v>7943</v>
+      </c>
+      <c r="H27" s="17">
+        <v>217.869</v>
+      </c>
+      <c r="I27">
         <v>81949704</v>
       </c>
-      <c r="F27">
+      <c r="J27">
         <v>81949704</v>
       </c>
-      <c r="G27">
+      <c r="K27">
         <v>100</v>
       </c>
-      <c r="H27">
+      <c r="L27">
         <v>81939998</v>
       </c>
-      <c r="I27">
+      <c r="M27">
         <v>81939998</v>
       </c>
-      <c r="J27">
+      <c r="N27">
         <v>100</v>
       </c>
-      <c r="K27" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="M27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O27" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>166</v>
       </c>
@@ -5759,35 +6227,47 @@
       <c r="D28">
         <v>99.92</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="17">
+        <v>4.8355317158459998</v>
+      </c>
+      <c r="F28" s="17">
+        <v>26.189152227023001</v>
+      </c>
+      <c r="G28" s="17">
+        <v>8702.85</v>
+      </c>
+      <c r="H28" s="17">
+        <v>239.785</v>
+      </c>
+      <c r="I28">
         <v>85200330</v>
       </c>
-      <c r="F28">
+      <c r="J28">
         <v>85200330</v>
       </c>
-      <c r="G28">
+      <c r="K28">
         <v>100</v>
       </c>
-      <c r="H28">
+      <c r="L28">
         <v>85170406</v>
       </c>
-      <c r="I28">
+      <c r="M28">
         <v>85170406</v>
       </c>
-      <c r="J28">
+      <c r="N28">
         <v>100</v>
       </c>
-      <c r="K28" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="L28" s="15" t="s">
+      <c r="O28" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q28" t="s">
         <v>183</v>
       </c>
-      <c r="M28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>167</v>
       </c>
@@ -5800,29 +6280,41 @@
       <c r="D29">
         <v>99.93</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="17">
+        <v>0.39544568389524998</v>
+      </c>
+      <c r="F29" s="17">
+        <v>2.1877759364495999</v>
+      </c>
+      <c r="G29" s="17">
+        <v>4520.3500000000004</v>
+      </c>
+      <c r="H29" s="17">
+        <v>159.54599999999999</v>
+      </c>
+      <c r="I29">
         <v>8193426</v>
       </c>
-      <c r="F29">
+      <c r="J29">
         <v>8193426</v>
       </c>
-      <c r="G29">
+      <c r="K29">
         <v>100</v>
       </c>
-      <c r="H29">
+      <c r="L29">
         <v>8175021</v>
       </c>
-      <c r="I29">
+      <c r="M29">
         <v>8175021</v>
       </c>
-      <c r="J29">
+      <c r="N29">
         <v>100</v>
       </c>
-      <c r="L29" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P29" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -5835,29 +6327,41 @@
       <c r="D30">
         <v>99.91</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="17">
+        <v>0.43411842886321</v>
+      </c>
+      <c r="F30" s="17">
+        <v>2.3593986399396001</v>
+      </c>
+      <c r="G30" s="17">
+        <v>6394.17</v>
+      </c>
+      <c r="H30" s="17">
+        <v>2.78843</v>
+      </c>
+      <c r="I30">
         <v>8059754</v>
       </c>
-      <c r="F30">
+      <c r="J30">
         <v>8059754</v>
       </c>
-      <c r="G30">
+      <c r="K30">
         <v>100</v>
       </c>
-      <c r="H30">
+      <c r="L30">
         <v>7955476</v>
       </c>
-      <c r="I30">
+      <c r="M30">
         <v>7955476</v>
       </c>
-      <c r="J30">
+      <c r="N30">
         <v>100</v>
       </c>
-      <c r="L30" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P30" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>169</v>
       </c>
@@ -5870,29 +6374,41 @@
       <c r="D31">
         <v>99.92</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="17">
+        <v>3.4578727845811001</v>
+      </c>
+      <c r="F31" s="17">
+        <v>19.170107661635999</v>
+      </c>
+      <c r="G31" s="17">
+        <v>17540.900000000001</v>
+      </c>
+      <c r="H31" s="17">
+        <v>290.29399999999998</v>
+      </c>
+      <c r="I31">
         <v>62816671</v>
       </c>
-      <c r="F31">
+      <c r="J31">
         <v>62816671</v>
       </c>
-      <c r="G31">
+      <c r="K31">
         <v>100</v>
       </c>
-      <c r="H31">
+      <c r="L31">
         <v>62785773</v>
       </c>
-      <c r="I31">
+      <c r="M31">
         <v>62785773</v>
       </c>
-      <c r="J31">
+      <c r="N31">
         <v>100</v>
       </c>
-      <c r="L31" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P31" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>170</v>
       </c>
@@ -5905,29 +6421,41 @@
       <c r="D32">
         <v>99.94</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="17">
+        <v>3.9438569369634</v>
+      </c>
+      <c r="F32" s="17">
+        <v>21.275626773401999</v>
+      </c>
+      <c r="G32" s="17">
+        <v>2466.84</v>
+      </c>
+      <c r="H32" s="17">
+        <v>207.35599999999999</v>
+      </c>
+      <c r="I32">
         <v>69161367</v>
       </c>
-      <c r="F32">
+      <c r="J32">
         <v>69161367</v>
       </c>
-      <c r="G32">
+      <c r="K32">
         <v>100</v>
       </c>
-      <c r="H32">
+      <c r="L32">
         <v>69152226</v>
       </c>
-      <c r="I32">
+      <c r="M32">
         <v>69152226</v>
       </c>
-      <c r="J32">
+      <c r="N32">
         <v>100</v>
       </c>
-      <c r="L32" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P32" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>171</v>
       </c>
@@ -5940,45 +6468,209 @@
       <c r="D33">
         <v>99.93</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="17">
+        <v>3.6921527340489</v>
+      </c>
+      <c r="F33" s="17">
+        <v>19.924220123186998</v>
+      </c>
+      <c r="G33" s="17">
+        <v>8713.4500000000007</v>
+      </c>
+      <c r="H33" s="17">
+        <v>552.99699999999996</v>
+      </c>
+      <c r="I33">
         <v>67592664</v>
       </c>
-      <c r="F33">
+      <c r="J33">
         <v>67592664</v>
       </c>
-      <c r="G33">
+      <c r="K33">
         <v>100</v>
       </c>
-      <c r="H33">
+      <c r="L33">
         <v>67558916</v>
       </c>
-      <c r="I33">
+      <c r="M33">
         <v>67558916</v>
       </c>
-      <c r="J33">
+      <c r="N33">
         <v>100</v>
       </c>
-      <c r="L33" s="14" t="s">
-        <v>176</v>
+      <c r="P33" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L10:L33">
+  <conditionalFormatting sqref="P10:P33">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sequence">
-      <formula>NOT(ISERROR(SEARCH("Sequence",L10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sequence",P10)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No action">
-      <formula>NOT(ISERROR(SEARCH("No action",L10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No action",P10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3C7219-ACDD-473F-B8B4-4931745F183B}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" t="s">
+        <v>222</v>
+      </c>
+      <c r="W1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O2" t="s">
+        <v>219</v>
+      </c>
+      <c r="V2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3">
+        <v>255374</v>
+      </c>
+      <c r="E3" t="s">
+        <v>208</v>
+      </c>
+      <c r="O3" t="s">
+        <v>220</v>
+      </c>
+      <c r="V3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="19">
+        <v>192404</v>
+      </c>
+      <c r="E5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7">
+        <v>62970</v>
+      </c>
+      <c r="E7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="158" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>